--- a/data/2025-12-22/SCW Weekly Comp 2025-12-22 (Responses).xlsx
+++ b/data/2025-12-22/SCW Weekly Comp 2025-12-22 (Responses).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="382">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1289,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1328,31 +1328,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B3F86"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B3F86"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B3F86"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B3F86"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1377,13 +1358,29 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Form responses 1-style" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" size="0" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1718,9 +1715,9 @@
   </sheetPr>
   <dimension ref="A1:DL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2944,8 +2941,8 @@
       <c r="V21" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="W21" s="14">
-        <v>2.5925925925925925E-3</v>
+      <c r="W21" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>152</v>
